--- a/DOC/DB編/社内管理_DB編.xlsx
+++ b/DOC/DB編/社内管理_DB編.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17304" windowHeight="6695" tabRatio="896" firstSheet="4" activeTab="7"/>
+    <workbookView windowWidth="16331" windowHeight="6300" tabRatio="855" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="履歴リスト" sheetId="1" r:id="rId1"/>
@@ -1236,18 +1236,18 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1258,15 +1258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,68 +1275,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1365,10 +1306,69 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1430,6 +1430,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1442,7 +1448,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,19 +1538,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,31 +1574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,91 +1592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,6 +1834,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1851,9 +1860,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,41 +1880,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1926,6 +1902,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1939,10 +1939,10 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1951,16 +1951,16 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
@@ -1969,115 +1969,115 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5244,7 +5244,7 @@
       <c r="AI1" s="24"/>
       <c r="AJ1" s="25"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" ht="18.75" spans="1:36">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
@@ -11558,7 +11558,7 @@
   <sheetPr/>
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
@@ -14766,7 +14766,7 @@
   <sheetPr/>
   <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:L2"/>
     </sheetView>
   </sheetViews>
@@ -14821,7 +14821,7 @@
       <c r="AI1" s="24"/>
       <c r="AJ1" s="25"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" ht="18.75" spans="1:36">
       <c r="A2" s="67" t="s">
         <v>14</v>
       </c>
@@ -15555,7 +15555,7 @@
       <c r="AI1" s="24"/>
       <c r="AJ1" s="25"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" ht="18.75" spans="1:36">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>

--- a/DOC/DB編/社内管理_DB編.xlsx
+++ b/DOC/DB編/社内管理_DB編.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="855"/>
+    <workbookView windowWidth="18071" windowHeight="6107" tabRatio="957" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="履歴リスト" sheetId="1" r:id="rId1"/>
@@ -1213,8 +1213,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -1247,28 +1247,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1283,39 +1261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,23 +1276,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,9 +1297,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,14 +1321,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,7 +1440,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,13 +1566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,31 +1584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,109 +1602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,11 +1844,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1864,56 +1870,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1941,153 +1897,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5043,7 +5043,7 @@
   <sheetPr/>
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5212,7 +5212,7 @@
   <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD24"/>
+      <selection activeCell="O20" sqref="O20:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -7239,8 +7239,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18"/>
@@ -7296,7 +7296,7 @@
       <c r="AI1" s="24"/>
       <c r="AJ1" s="25"/>
     </row>
-    <row r="2" ht="18.75" spans="1:36">
+    <row r="2" spans="1:36">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>

--- a/DOC/DB編/社内管理_DB編.xlsx
+++ b/DOC/DB編/社内管理_DB編.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ems\DOC\DB編\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067BB569-CC37-4341-9ECF-D421179A84C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D15A39-A692-40DB-A79A-776ACFF839CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="863" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="535">
   <si>
     <t>　　　　　　　　　　　　　変更リスト</t>
   </si>
@@ -2111,6 +2111,26 @@
       </rPr>
       <t>archar</t>
     </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>updateDate</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>insertDate</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -13550,7 +13570,7 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:R13"/>
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -13736,7 +13756,7 @@
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="86" t="s">
-        <v>442</v>
+        <v>534</v>
       </c>
       <c r="Q4" s="87"/>
       <c r="R4" s="87"/>
@@ -14256,16 +14276,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="85"/>
-      <c r="C14" s="87" t="s">
-        <v>80</v>
+      <c r="C14" s="172" t="s">
+        <v>533</v>
       </c>
       <c r="D14" s="87"/>
       <c r="E14" s="87"/>
       <c r="F14" s="87"/>
       <c r="G14" s="87"/>
       <c r="H14" s="87"/>
-      <c r="I14" s="87" t="s">
-        <v>81</v>
+      <c r="I14" s="172" t="s">
+        <v>530</v>
       </c>
       <c r="J14" s="87"/>
       <c r="K14" s="87"/>
@@ -14309,16 +14329,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="85"/>
-      <c r="C15" s="87" t="s">
-        <v>82</v>
+      <c r="C15" s="172" t="s">
+        <v>532</v>
       </c>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
       <c r="F15" s="87"/>
       <c r="G15" s="87"/>
       <c r="H15" s="87"/>
-      <c r="I15" s="87" t="s">
-        <v>83</v>
+      <c r="I15" s="172" t="s">
+        <v>531</v>
       </c>
       <c r="J15" s="87"/>
       <c r="K15" s="87"/>

--- a/DOC/DB編/社内管理_DB編.xlsx
+++ b/DOC/DB編/社内管理_DB編.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>　　　　　　　　　　　　　変更リスト</t>
   </si>
@@ -1617,33 +1617,36 @@
   </si>
   <si>
     <t>経費管理</t>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>expensesType</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>happenAddress</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>deleteFlg</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>削除フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>confirmStaus</t>
-    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1，2，3-1，3-2，4，56</t>
+  </si>
+  <si>
+    <t>expenseslType</t>
+  </si>
+  <si>
+    <t>１：</t>
+  </si>
+  <si>
+    <t>expensesTypeDetail</t>
+  </si>
+  <si>
+    <t>経費種別明細</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>２</t>
   </si>
 </sst>
 </file>
@@ -2645,15 +2648,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2710,13 +2707,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="グループ化 2"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2727,15 +2718,9 @@
           <a:chExt cx="1424940" cy="632460"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2803,15 +2788,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2889,13 +2868,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="グループ化 5"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2906,15 +2879,9 @@
           <a:chExt cx="1516380" cy="632460"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2982,15 +2949,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3068,13 +3029,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="グループ化 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3085,15 +3040,9 @@
           <a:chExt cx="1516380" cy="632460"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3161,15 +3110,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3247,13 +3190,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3264,15 +3201,9 @@
           <a:chExt cx="1516380" cy="632460"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3340,15 +3271,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3426,13 +3351,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="グループ化 14"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3443,15 +3362,9 @@
           <a:chExt cx="1516380" cy="632460"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="正方形/長方形 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3519,15 +3432,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="正方形/長方形 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3605,13 +3512,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="グループ化 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="グループ化 17"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3622,15 +3523,9 @@
           <a:chExt cx="1516380" cy="632460"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="正方形/長方形 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3698,15 +3593,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="正方形/長方形 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3784,13 +3673,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="グループ化 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="グループ化 20"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3801,15 +3684,9 @@
           <a:chExt cx="1516380" cy="1143000"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="正方形/長方形 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3877,15 +3754,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4054,13 +3925,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="グループ化 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="グループ化 23"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4071,15 +3936,9 @@
           <a:chExt cx="1813560" cy="907092"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="正方形/長方形 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4147,15 +4006,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4295,13 +4148,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="グループ化 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="グループ化 26"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4312,15 +4159,9 @@
           <a:chExt cx="1813560" cy="906780"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4388,15 +4229,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="正方形/長方形 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4518,15 +4353,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4568,15 +4397,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4618,15 +4441,9 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4668,15 +4485,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線コネクタ 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4718,15 +4529,9 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4768,15 +4573,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線コネクタ 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4818,15 +4617,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4868,15 +4661,9 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4937,15 +4724,9 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5260,19 +5041,20 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
     <col min="3" max="3" width="60.25" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="B3" s="64" t="s">
         <v>1</v>
       </c>
@@ -5286,7 +5068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -5300,7 +5082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="B5" s="66">
         <v>2</v>
       </c>
@@ -5314,7 +5096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="B6" s="66">
         <v>3</v>
       </c>
@@ -5328,7 +5110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="B7" s="66">
         <v>4</v>
       </c>
@@ -5342,7 +5124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="B8" s="66">
         <v>5</v>
       </c>
@@ -5356,7 +5138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="B9" s="66">
         <v>6</v>
       </c>
@@ -5370,7 +5152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="B10" s="66">
         <v>7</v>
       </c>
@@ -5384,7 +5166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="B11" s="66">
         <v>8</v>
       </c>
@@ -5398,55 +5180,55 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="B16" s="66"/>
       <c r="C16" s="66"/>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="B18" s="66"/>
       <c r="C18" s="66"/>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
       <c r="D20" s="66"/>
@@ -5467,12 +5249,74 @@
       <selection activeCell="F2" sqref="F2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -5518,7 +5362,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="101" t="s">
         <v>23</v>
       </c>
@@ -5566,7 +5410,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="126" t="s">
         <v>1</v>
       </c>
@@ -5622,7 +5466,7 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="16"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -5678,7 +5522,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="92">
         <v>2</v>
       </c>
@@ -5734,7 +5578,7 @@
       <c r="AI5" s="42"/>
       <c r="AJ5" s="46"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -5790,7 +5634,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -5844,7 +5688,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -5898,7 +5742,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -5952,7 +5796,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -6006,7 +5850,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -6058,7 +5902,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -6110,7 +5954,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -6162,7 +6006,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
         <v>11</v>
       </c>
@@ -6214,7 +6058,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="17"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87">
         <v>12</v>
       </c>
@@ -6266,7 +6110,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="17"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87">
         <v>13</v>
       </c>
@@ -6318,7 +6162,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="17"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="87">
         <v>14</v>
       </c>
@@ -6370,7 +6214,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="17"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="87">
         <v>15</v>
       </c>
@@ -6422,7 +6266,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="17"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="87">
         <v>16</v>
       </c>
@@ -6474,7 +6318,7 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="47"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="87">
         <v>17</v>
       </c>
@@ -6528,7 +6372,7 @@
       <c r="AI20" s="7"/>
       <c r="AJ20" s="47"/>
     </row>
-    <row r="21" spans="1:36" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" customHeight="1" ht="36">
       <c r="A21" s="87">
         <v>18</v>
       </c>
@@ -6580,7 +6424,7 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="47"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" s="87">
         <v>19</v>
       </c>
@@ -6636,7 +6480,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="17"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23">
       <c r="A23" s="87">
         <v>20</v>
       </c>
@@ -6688,7 +6532,7 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="17"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="24">
       <c r="A24" s="87">
         <v>21</v>
       </c>
@@ -6740,18 +6584,151 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="17"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="26">
       <c r="C26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="T24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="T21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:N22"/>
@@ -6766,146 +6743,13 @@
     <mergeCell ref="T23:AA23"/>
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="T20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="T21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6921,12 +6765,74 @@
       <selection activeCell="C22" sqref="C22:N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
@@ -6972,7 +6878,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="78" t="s">
         <v>23</v>
       </c>
@@ -7020,7 +6926,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="131" t="s">
         <v>1</v>
       </c>
@@ -7076,7 +6982,7 @@
       <c r="AI3" s="32"/>
       <c r="AJ3" s="16"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -7130,7 +7036,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -7186,7 +7092,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -7242,7 +7148,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -7296,7 +7202,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -7348,7 +7254,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -7400,7 +7306,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -7452,7 +7358,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -7504,7 +7410,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -7556,7 +7462,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>9</v>
       </c>
@@ -7608,7 +7514,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
         <v>10</v>
       </c>
@@ -7660,7 +7566,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="17"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87">
         <v>11</v>
       </c>
@@ -7712,7 +7618,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="17"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87">
         <v>12</v>
       </c>
@@ -7764,7 +7670,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="17"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="87">
         <v>13</v>
       </c>
@@ -7816,7 +7722,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="17"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="87">
         <v>14</v>
       </c>
@@ -7868,7 +7774,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="17"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="87">
         <v>15</v>
       </c>
@@ -7920,7 +7826,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="17"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="87">
         <v>16</v>
       </c>
@@ -7972,7 +7878,7 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="17"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" s="87">
         <v>17</v>
       </c>
@@ -8024,7 +7930,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="17"/>
     </row>
-    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" customHeight="1" ht="18">
       <c r="A22" s="87">
         <v>18</v>
       </c>
@@ -8076,7 +7982,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="17"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23">
       <c r="A23" s="87">
         <v>19</v>
       </c>
@@ -8128,7 +8034,7 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="17"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="24">
       <c r="A24" s="87">
         <v>20</v>
       </c>
@@ -8180,7 +8086,7 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="17"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="25">
       <c r="A25" s="87">
         <v>21</v>
       </c>
@@ -8232,7 +8138,7 @@
       <c r="AI25" s="34"/>
       <c r="AJ25" s="39"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="26">
       <c r="A26" s="87">
         <v>22</v>
       </c>
@@ -8284,7 +8190,7 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="17"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="27">
       <c r="A27" s="87">
         <v>23</v>
       </c>
@@ -8336,7 +8242,7 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="17"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="28">
       <c r="A28" s="87">
         <v>24</v>
       </c>
@@ -8388,7 +8294,7 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="17"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="29">
       <c r="A29" s="87">
         <v>25</v>
       </c>
@@ -8440,7 +8346,7 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="17"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="30">
       <c r="A30" s="87">
         <v>25</v>
       </c>
@@ -8492,7 +8398,7 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="17"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="31">
       <c r="A31" s="87">
         <v>26</v>
       </c>
@@ -8546,7 +8452,7 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="32">
       <c r="A32" s="87">
         <v>27</v>
       </c>
@@ -8600,7 +8506,7 @@
       <c r="AI32" s="33"/>
       <c r="AJ32" s="40"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="33">
       <c r="A33" s="87">
         <v>28</v>
       </c>
@@ -8652,7 +8558,7 @@
       <c r="AI33" s="34"/>
       <c r="AJ33" s="39"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="34">
       <c r="A34" s="87">
         <v>29</v>
       </c>
@@ -8704,7 +8610,7 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="17"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="35">
       <c r="A35" s="87">
         <v>30</v>
       </c>
@@ -8754,7 +8660,7 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="17"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="36">
       <c r="A36" s="87">
         <v>31</v>
       </c>
@@ -8806,13 +8712,230 @@
     </row>
   </sheetData>
   <mergeCells count="245">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="T36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="T21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="T25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="T26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="T27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="T29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="T30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="T31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="T32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="T33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:N34"/>
@@ -8827,230 +8950,13 @@
     <mergeCell ref="T35:AA35"/>
     <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="T32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="T33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="T30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="T31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="T29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="T26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="T27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="T24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="T25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="T23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="T20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="T21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="T36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9066,14 +8972,74 @@
       <selection activeCell="T24" sqref="T24:AA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="32" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
     <col min="33" max="33" width="4.25" customWidth="1"/>
-    <col min="34" max="63" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -9119,7 +9085,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="101" t="s">
         <v>23</v>
       </c>
@@ -9169,7 +9135,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="126" t="s">
         <v>1</v>
       </c>
@@ -9225,7 +9191,7 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="16"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -9281,7 +9247,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -9337,7 +9303,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -9389,7 +9355,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -9443,7 +9409,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -9497,7 +9463,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -9551,7 +9517,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -9605,7 +9571,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -9659,7 +9625,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" customHeight="1" ht="18">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -9716,7 +9682,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -9770,7 +9736,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
         <v>11</v>
       </c>
@@ -9824,7 +9790,7 @@
       <c r="AI14" s="20"/>
       <c r="AJ14" s="29"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87">
         <v>12</v>
       </c>
@@ -9878,7 +9844,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="17"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87">
         <v>13</v>
       </c>
@@ -9930,7 +9896,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="17"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="87">
         <v>14</v>
       </c>
@@ -9982,7 +9948,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="17"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="87">
         <v>14</v>
       </c>
@@ -10034,7 +10000,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="17"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="87">
         <v>14</v>
       </c>
@@ -10086,7 +10052,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="17"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="87">
         <v>14</v>
       </c>
@@ -10138,7 +10104,7 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="17"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" s="87">
         <v>14</v>
       </c>
@@ -10190,7 +10156,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="17"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" s="87">
         <v>14</v>
       </c>
@@ -10242,7 +10208,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="17"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23">
       <c r="A23" s="87">
         <v>14</v>
       </c>
@@ -10294,7 +10260,7 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="17"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="24">
       <c r="A24" s="87">
         <v>14</v>
       </c>
@@ -10346,7 +10312,7 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="17"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="25">
       <c r="A25" s="87">
         <v>14</v>
       </c>
@@ -10398,7 +10364,7 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="17"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="26">
       <c r="A26" s="87">
         <v>14</v>
       </c>
@@ -10450,7 +10416,7 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="17"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="27">
       <c r="A27" s="87">
         <v>14</v>
       </c>
@@ -10502,7 +10468,7 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="17"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="28">
       <c r="A28" s="87">
         <v>14</v>
       </c>
@@ -10554,7 +10520,7 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="17"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="29">
       <c r="A29" s="87">
         <v>15</v>
       </c>
@@ -10604,7 +10570,7 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="17"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="30">
       <c r="A30" s="87">
         <v>16</v>
       </c>
@@ -10656,7 +10622,7 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="17"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="31">
       <c r="A31" s="87">
         <v>17</v>
       </c>
@@ -10712,7 +10678,7 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="32">
       <c r="A32" s="87">
         <v>18</v>
       </c>
@@ -10764,7 +10730,7 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="17"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="33">
       <c r="A33" s="87">
         <v>19</v>
       </c>
@@ -10814,7 +10780,7 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="17"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="34">
       <c r="A34" s="87">
         <v>20</v>
       </c>
@@ -10866,7 +10832,7 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="17"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="35">
       <c r="A35" s="87">
         <v>21</v>
       </c>
@@ -10918,6 +10884,230 @@
     </row>
   </sheetData>
   <mergeCells count="238">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="T21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="T25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="T26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="T27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="T29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="T30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="T31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="T32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="T33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:N34"/>
@@ -10932,230 +11122,6 @@
     <mergeCell ref="T35:AA35"/>
     <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="T32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="T33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="T30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="T31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="T29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="T26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="T27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="T24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="T25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="T23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="T20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="T21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -11167,16 +11133,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" tabSelected="1">
+      <selection activeCell="T17" sqref="T17:AA17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -11222,7 +11250,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="101" t="s">
         <v>23</v>
       </c>
@@ -11270,7 +11298,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="126" t="s">
         <v>1</v>
       </c>
@@ -11326,7 +11354,7 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="16"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -11380,7 +11408,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -11434,7 +11462,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -11488,7 +11516,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -11542,7 +11570,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -11596,13 +11624,13 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
       <c r="B9" s="87"/>
       <c r="C9" s="171" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="104"/>
@@ -11650,7 +11678,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -11700,7 +11728,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -11754,7 +11782,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -11804,20 +11832,20 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
       <c r="B13" s="87"/>
       <c r="C13" s="146" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
       <c r="H13" s="90" t="s">
-        <v>167</v>
+        <v>519</v>
       </c>
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
@@ -11830,12 +11858,12 @@
       </c>
       <c r="P13" s="90"/>
       <c r="Q13" s="90"/>
-      <c r="R13" s="6">
-        <v>8</v>
+      <c r="R13" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="145" t="s">
-        <v>167</v>
+        <v>519</v>
       </c>
       <c r="U13" s="145"/>
       <c r="V13" s="145"/>
@@ -11844,48 +11872,52 @@
       <c r="Y13" s="145"/>
       <c r="Z13" s="145"/>
       <c r="AA13" s="145"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="105"/>
+      <c r="AB13" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC13" s="91"/>
       <c r="AD13" s="105"/>
       <c r="AE13" s="105"/>
-      <c r="AF13" s="9"/>
+      <c r="AF13" s="9" t="s">
+        <v>531</v>
+      </c>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="87"/>
-      <c r="C14" s="104" t="s">
-        <v>431</v>
-      </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104" t="s">
-        <v>432</v>
-      </c>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104" t="s">
+      <c r="C14" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="7">
-        <v>1</v>
-      </c>
-      <c r="S14" s="7"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="S14" s="6"/>
       <c r="T14" s="130" t="s">
-        <v>432</v>
+        <v>530</v>
       </c>
       <c r="U14" s="130"/>
       <c r="V14" s="130"/>
@@ -11894,34 +11926,30 @@
       <c r="Y14" s="130"/>
       <c r="Z14" s="130"/>
       <c r="AA14" s="130"/>
-      <c r="AB14" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="9" t="s">
-        <v>433</v>
-      </c>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="9"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="17"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="87"/>
       <c r="C15" s="104" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D15" s="104"/>
       <c r="E15" s="104"/>
       <c r="F15" s="104"/>
       <c r="G15" s="104"/>
       <c r="H15" s="104" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I15" s="104"/>
       <c r="J15" s="104"/>
@@ -11935,11 +11963,11 @@
       <c r="P15" s="104"/>
       <c r="Q15" s="104"/>
       <c r="R15" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S15" s="7"/>
-      <c r="T15" s="145" t="s">
-        <v>435</v>
+      <c r="T15" s="130" t="s">
+        <v>432</v>
       </c>
       <c r="U15" s="130"/>
       <c r="V15" s="130"/>
@@ -11948,30 +11976,34 @@
       <c r="Y15" s="130"/>
       <c r="Z15" s="130"/>
       <c r="AA15" s="130"/>
-      <c r="AB15" s="105"/>
+      <c r="AB15" s="105" t="s">
+        <v>40</v>
+      </c>
       <c r="AC15" s="105"/>
       <c r="AD15" s="105"/>
       <c r="AE15" s="105"/>
-      <c r="AF15" s="9"/>
+      <c r="AF15" s="9" t="s">
+        <v>433</v>
+      </c>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="17"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="87"/>
       <c r="C16" s="104" t="s">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="D16" s="104"/>
       <c r="E16" s="104"/>
       <c r="F16" s="104"/>
       <c r="G16" s="104"/>
       <c r="H16" s="104" t="s">
-        <v>35</v>
+        <v>435</v>
       </c>
       <c r="I16" s="104"/>
       <c r="J16" s="104"/>
@@ -11985,19 +12017,19 @@
       <c r="P16" s="104"/>
       <c r="Q16" s="104"/>
       <c r="R16" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="S16" s="7"/>
-      <c r="T16" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
+      <c r="T16" s="145" t="s">
+        <v>435</v>
+      </c>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
       <c r="AB16" s="105"/>
       <c r="AC16" s="105"/>
       <c r="AD16" s="105"/>
@@ -12008,20 +12040,20 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="17"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="87">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="87"/>
       <c r="C17" s="104" t="s">
-        <v>436</v>
+        <v>366</v>
       </c>
       <c r="D17" s="104"/>
       <c r="E17" s="104"/>
       <c r="F17" s="104"/>
       <c r="G17" s="104"/>
       <c r="H17" s="104" t="s">
-        <v>437</v>
+        <v>35</v>
       </c>
       <c r="I17" s="104"/>
       <c r="J17" s="104"/>
@@ -12035,65 +12067,61 @@
       <c r="P17" s="104"/>
       <c r="Q17" s="104"/>
       <c r="R17" s="7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="S17" s="7"/>
-      <c r="T17" s="130" t="s">
-        <v>437</v>
-      </c>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
+      <c r="T17" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
       <c r="AB17" s="105"/>
       <c r="AC17" s="105"/>
-      <c r="AD17" s="105" t="s">
-        <v>45</v>
-      </c>
+      <c r="AD17" s="105"/>
       <c r="AE17" s="105"/>
-      <c r="AF17" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="AF17" s="9"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="17"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="87"/>
-      <c r="C18" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88" t="s">
+      <c r="C18" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104" t="s">
+        <v>437</v>
+      </c>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="6">
-        <v>8</v>
-      </c>
-      <c r="S18" s="6"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="7">
+        <v>6</v>
+      </c>
+      <c r="S18" s="7"/>
       <c r="T18" s="130" t="s">
-        <v>96</v>
+        <v>437</v>
       </c>
       <c r="U18" s="130"/>
       <c r="V18" s="130"/>
@@ -12104,48 +12132,50 @@
       <c r="AA18" s="130"/>
       <c r="AB18" s="105"/>
       <c r="AC18" s="105"/>
-      <c r="AD18" s="105"/>
+      <c r="AD18" s="105" t="s">
+        <v>45</v>
+      </c>
       <c r="AE18" s="105"/>
       <c r="AF18" s="9" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="17"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="87">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="87"/>
-      <c r="C19" s="104" t="s">
-        <v>438</v>
-      </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104" t="s">
-        <v>439</v>
-      </c>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104" t="s">
+      <c r="C19" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="7">
-        <v>6</v>
-      </c>
-      <c r="S19" s="7"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="6">
+        <v>8</v>
+      </c>
+      <c r="S19" s="6"/>
       <c r="T19" s="130" t="s">
-        <v>439</v>
+        <v>96</v>
       </c>
       <c r="U19" s="130"/>
       <c r="V19" s="130"/>
@@ -12156,50 +12186,48 @@
       <c r="AA19" s="130"/>
       <c r="AB19" s="105"/>
       <c r="AC19" s="105"/>
-      <c r="AD19" s="105" t="s">
-        <v>45</v>
-      </c>
+      <c r="AD19" s="105"/>
       <c r="AE19" s="105"/>
       <c r="AF19" s="9" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="17"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="87"/>
-      <c r="C20" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88" t="s">
+      <c r="C20" s="104" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104" t="s">
+        <v>439</v>
+      </c>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="6">
-        <v>8</v>
-      </c>
-      <c r="S20" s="6"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="7">
+        <v>6</v>
+      </c>
+      <c r="S20" s="7"/>
       <c r="T20" s="130" t="s">
-        <v>98</v>
+        <v>439</v>
       </c>
       <c r="U20" s="130"/>
       <c r="V20" s="130"/>
@@ -12210,30 +12238,32 @@
       <c r="AA20" s="130"/>
       <c r="AB20" s="105"/>
       <c r="AC20" s="105"/>
-      <c r="AD20" s="105"/>
+      <c r="AD20" s="105" t="s">
+        <v>45</v>
+      </c>
       <c r="AE20" s="105"/>
       <c r="AF20" s="9" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="17"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" s="87">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="87"/>
-      <c r="C21" s="166" t="s">
-        <v>523</v>
-      </c>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
+      <c r="C21" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="88" t="s">
-        <v>519</v>
+        <v>98</v>
       </c>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -12251,7 +12281,7 @@
       </c>
       <c r="S21" s="6"/>
       <c r="T21" s="130" t="s">
-        <v>519</v>
+        <v>98</v>
       </c>
       <c r="U21" s="130"/>
       <c r="V21" s="130"/>
@@ -12264,13 +12294,15 @@
       <c r="AC21" s="105"/>
       <c r="AD21" s="105"/>
       <c r="AE21" s="105"/>
-      <c r="AF21" s="9"/>
+      <c r="AF21" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="17"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" s="87">
         <v>19</v>
       </c>
@@ -12297,7 +12329,7 @@
       <c r="P22" s="90"/>
       <c r="Q22" s="90"/>
       <c r="R22" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="145" t="s">
@@ -12320,20 +12352,20 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="17"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23">
       <c r="A23" s="87">
         <v>20</v>
       </c>
       <c r="B23" s="87"/>
       <c r="C23" s="165" t="s">
-        <v>525</v>
+        <v>150</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="90"/>
       <c r="H23" s="170" t="s">
-        <v>526</v>
+        <v>151</v>
       </c>
       <c r="I23" s="90"/>
       <c r="J23" s="90"/>
@@ -12351,7 +12383,7 @@
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="145" t="s">
-        <v>526</v>
+        <v>151</v>
       </c>
       <c r="U23" s="145"/>
       <c r="V23" s="145"/>
@@ -12372,13 +12404,83 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="T23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:N13"/>
@@ -12386,6 +12488,55 @@
     <mergeCell ref="T13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:N21"/>
@@ -12400,132 +12551,13 @@
     <mergeCell ref="T22:AA22"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="T20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12540,16 +12572,78 @@
   </sheetPr>
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
@@ -12595,7 +12689,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="78" t="s">
         <v>23</v>
       </c>
@@ -12643,7 +12737,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
@@ -12699,7 +12793,7 @@
       <c r="AI3" s="19"/>
       <c r="AJ3" s="23"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -12751,7 +12845,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -12805,7 +12899,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -12855,7 +12949,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -12907,7 +13001,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -12959,7 +13053,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -13009,7 +13103,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -13059,7 +13153,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -13111,7 +13205,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -13157,7 +13251,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -13205,6 +13299,81 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
     <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="A13:B13"/>
@@ -13214,81 +13383,6 @@
     <mergeCell ref="T13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13307,14 +13401,75 @@
       <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="36" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
     <col min="37" max="37" width="23.875" customWidth="1"/>
-    <col min="38" max="64" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
+    <col min="64" max="64" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
@@ -13361,7 +13516,7 @@
       <c r="AJ1" s="13"/>
       <c r="AK1" s="14"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="78" t="s">
         <v>23</v>
       </c>
@@ -13410,7 +13565,7 @@
       <c r="AJ2" s="78"/>
       <c r="AK2" s="78"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
@@ -13467,7 +13622,7 @@
       <c r="AJ3" s="19"/>
       <c r="AK3" s="23"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -13518,7 +13673,7 @@
       <c r="AJ4" s="6"/>
       <c r="AK4" s="17"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -13575,7 +13730,7 @@
       <c r="AJ5" s="6"/>
       <c r="AK5" s="17"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -13630,7 +13785,7 @@
       <c r="AJ6" s="6"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -13683,7 +13838,7 @@
       <c r="AJ7" s="6"/>
       <c r="AK7" s="17"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -13736,7 +13891,7 @@
       <c r="AJ8" s="6"/>
       <c r="AK8" s="17"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -13789,7 +13944,7 @@
       <c r="AJ9" s="6"/>
       <c r="AK9" s="17"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -13844,7 +13999,7 @@
       <c r="AJ10" s="158"/>
       <c r="AK10" s="159"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -13899,7 +14054,7 @@
       <c r="AJ11" s="160"/>
       <c r="AK11" s="161"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -13952,7 +14107,7 @@
       <c r="AJ12" s="6"/>
       <c r="AK12" s="17"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -14005,7 +14160,7 @@
       <c r="AJ13" s="6"/>
       <c r="AK13" s="17"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
         <v>11</v>
       </c>
@@ -14058,7 +14213,7 @@
       <c r="AJ14" s="136"/>
       <c r="AK14" s="137"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87">
         <v>12</v>
       </c>
@@ -14111,35 +14266,62 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="U14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="U12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AD1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:AD2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="U3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="U4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="U6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="U7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="U8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="U9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:O10"/>
@@ -14156,62 +14338,35 @@
     <mergeCell ref="AC11:AD11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="U8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="U9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="U6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="U7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="U4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="U5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AD1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:AD2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="U3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="U12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="U14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14230,12 +14385,74 @@
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
@@ -14281,7 +14498,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="78" t="s">
         <v>23</v>
       </c>
@@ -14329,7 +14546,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
@@ -14385,7 +14602,7 @@
       <c r="AI3" s="19"/>
       <c r="AJ3" s="23"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -14435,7 +14652,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -14491,7 +14708,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -14543,7 +14760,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -14572,7 +14789,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="162">
-        <v>3.5999999999999999E-3</v>
+        <v>3.6E-3</v>
       </c>
       <c r="U7" s="89"/>
       <c r="V7" s="89"/>
@@ -14597,7 +14814,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -14649,7 +14866,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -14695,7 +14912,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -14743,13 +14960,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="A9:B9"/>
@@ -14759,53 +15016,13 @@
     <mergeCell ref="T9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14824,12 +15041,74 @@
       <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
@@ -14875,7 +15154,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="78" t="s">
         <v>23</v>
       </c>
@@ -14923,7 +15202,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
@@ -14979,7 +15258,7 @@
       <c r="AI3" s="19"/>
       <c r="AJ3" s="23"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -15029,7 +15308,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -15085,7 +15364,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -15114,7 +15393,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="162">
-        <v>3.5999999999999999E-3</v>
+        <v>3.6E-3</v>
       </c>
       <c r="U6" s="89"/>
       <c r="V6" s="89"/>
@@ -15139,7 +15418,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -15191,7 +15470,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -15243,7 +15522,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -15295,7 +15574,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -15347,7 +15626,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -15393,7 +15672,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -15441,13 +15720,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
     <mergeCell ref="AB10:AC10"/>
     <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="A11:B11"/>
@@ -15457,67 +15790,13 @@
     <mergeCell ref="T11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -15536,14 +15815,74 @@
       <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="32" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
     <col min="33" max="33" width="4.25" customWidth="1"/>
-    <col min="34" max="63" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -15589,7 +15928,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="101" t="s">
         <v>23</v>
       </c>
@@ -15637,7 +15976,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="126" t="s">
         <v>1</v>
       </c>
@@ -15693,7 +16032,7 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="16"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -15747,7 +16086,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -15803,7 +16142,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -15853,7 +16192,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -15903,7 +16242,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -15953,7 +16292,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -16003,7 +16342,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -16053,7 +16392,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -16103,7 +16442,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -16153,7 +16492,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -16203,7 +16542,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
         <v>11</v>
       </c>
@@ -16253,7 +16592,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="17"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87">
         <v>12</v>
       </c>
@@ -16303,7 +16642,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="17"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87">
         <v>13</v>
       </c>
@@ -16353,7 +16692,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="17"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="87">
         <v>14</v>
       </c>
@@ -16403,7 +16742,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="17"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="87">
         <v>15</v>
       </c>
@@ -16453,7 +16792,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="17"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="87">
         <v>16</v>
       </c>
@@ -16501,7 +16840,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="17"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="87">
         <v>17</v>
       </c>
@@ -16551,7 +16890,7 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="17"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" s="87">
         <v>18</v>
       </c>
@@ -16607,7 +16946,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="17"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" s="87">
         <v>19</v>
       </c>
@@ -16657,7 +16996,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="17"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23">
       <c r="A23" s="87">
         <v>20</v>
       </c>
@@ -16707,6 +17046,146 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="T21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:N22"/>
@@ -16721,146 +17200,6 @@
     <mergeCell ref="T23:AA23"/>
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="T20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="T21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16879,14 +17218,74 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="32" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
     <col min="33" max="33" width="4.25" customWidth="1"/>
-    <col min="34" max="63" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -16932,7 +17331,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="101" t="s">
         <v>23</v>
       </c>
@@ -16980,7 +17379,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="126" t="s">
         <v>1</v>
       </c>
@@ -17036,7 +17435,7 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="16"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87"/>
       <c r="B4" s="87"/>
       <c r="C4" s="90"/>
@@ -17074,7 +17473,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87"/>
       <c r="B5" s="87"/>
       <c r="C5" s="90"/>
@@ -17112,7 +17511,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87"/>
       <c r="B6" s="87"/>
       <c r="C6" s="104"/>
@@ -17150,7 +17549,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87"/>
       <c r="B7" s="87"/>
       <c r="C7" s="142"/>
@@ -17188,7 +17587,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87"/>
       <c r="B8" s="87"/>
       <c r="C8" s="142"/>
@@ -17226,7 +17625,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87"/>
       <c r="B9" s="87"/>
       <c r="C9" s="142"/>
@@ -17264,7 +17663,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="142"/>
@@ -17302,7 +17701,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87"/>
       <c r="B11" s="87"/>
       <c r="C11" s="142"/>
@@ -17340,7 +17739,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87"/>
       <c r="B12" s="87"/>
       <c r="C12" s="142"/>
@@ -17378,7 +17777,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87"/>
       <c r="B13" s="87"/>
       <c r="C13" s="142"/>
@@ -17416,7 +17815,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87"/>
       <c r="B14" s="87"/>
       <c r="C14" s="142"/>
@@ -17454,7 +17853,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="17"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87"/>
       <c r="B15" s="87"/>
       <c r="C15" s="142"/>
@@ -17492,7 +17891,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="17"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87"/>
       <c r="B16" s="87"/>
       <c r="C16" s="142"/>
@@ -17530,7 +17929,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="17"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="87"/>
       <c r="B17" s="87"/>
       <c r="C17" s="142"/>
@@ -17568,7 +17967,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="17"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="87"/>
       <c r="B18" s="87"/>
       <c r="C18" s="142"/>
@@ -17606,7 +18005,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="17"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="87"/>
       <c r="B19" s="87"/>
       <c r="C19" s="104"/>
@@ -17644,7 +18043,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="17"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="87"/>
       <c r="B20" s="87"/>
       <c r="C20" s="104"/>
@@ -17682,7 +18081,7 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="17"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" s="87"/>
       <c r="B21" s="87"/>
       <c r="C21" s="104"/>
@@ -17720,7 +18119,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="17"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" s="87"/>
       <c r="B22" s="87"/>
       <c r="C22" s="89"/>
@@ -17758,7 +18157,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="17"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23">
       <c r="A23" s="87"/>
       <c r="B23" s="87"/>
       <c r="C23" s="89"/>
@@ -17798,6 +18197,146 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="T21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:N22"/>
@@ -17812,146 +18351,6 @@
     <mergeCell ref="T23:AA23"/>
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="T20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="T21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17967,7 +18366,7 @@
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17983,12 +18382,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="60" t="s">
         <v>15</v>
       </c>
@@ -17996,17 +18395,17 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="B3" s="60" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="B4" s="60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="B5" s="60" t="s">
         <v>18</v>
       </c>
@@ -18025,15 +18424,77 @@
   <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="T8" sqref="T8:AA8" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
@@ -18079,7 +18540,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="78" t="s">
         <v>23</v>
       </c>
@@ -18127,7 +18588,7 @@
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
@@ -18183,7 +18644,7 @@
       <c r="AI3" s="19"/>
       <c r="AJ3" s="23"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -18239,7 +18700,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -18293,7 +18754,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -18349,7 +18810,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -18405,7 +18866,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="92">
         <v>5</v>
       </c>
@@ -18464,7 +18925,7 @@
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -18518,7 +18979,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -18572,7 +19033,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -18626,7 +19087,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -18680,7 +19141,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -18734,7 +19195,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
         <v>11</v>
       </c>
@@ -18788,7 +19249,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="17"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="96">
         <v>12</v>
       </c>
@@ -18840,7 +19301,7 @@
       <c r="AI15" s="33"/>
       <c r="AJ15" s="40"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87">
         <v>13</v>
       </c>
@@ -18894,7 +19355,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="17"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="87">
         <v>14</v>
       </c>
@@ -18948,7 +19409,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="17"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="96">
         <v>15</v>
       </c>
@@ -19000,7 +19461,7 @@
       <c r="AI18" s="33"/>
       <c r="AJ18" s="40"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="87">
         <v>16</v>
       </c>
@@ -19052,7 +19513,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="17"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="87">
         <v>17</v>
       </c>
@@ -19102,7 +19563,7 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="17"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" s="87">
         <v>18</v>
       </c>
@@ -19152,7 +19613,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="17"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" s="87">
         <v>19</v>
       </c>
@@ -19204,13 +19665,132 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:N20"/>
@@ -19225,132 +19805,13 @@
     <mergeCell ref="T21:AA21"/>
     <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AC1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19369,12 +19830,72 @@
       <selection activeCell="AM24" sqref="AM24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="61" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -19418,7 +19939,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="14"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="101" t="s">
         <v>23</v>
       </c>
@@ -19464,7 +19985,7 @@
       <c r="AG2" s="78"/>
       <c r="AH2" s="78"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
@@ -19516,7 +20037,7 @@
       <c r="AG3" s="52"/>
       <c r="AH3" s="54"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -19568,7 +20089,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="47"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -19618,7 +20139,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="47"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -19670,7 +20191,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="47"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -19722,7 +20243,7 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="47"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -19772,7 +20293,7 @@
       <c r="AG8" s="7"/>
       <c r="AH8" s="47"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -19824,7 +20345,7 @@
       <c r="AG9" s="7"/>
       <c r="AH9" s="47"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -19876,7 +20397,7 @@
       <c r="AG10" s="7"/>
       <c r="AH10" s="47"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -19928,7 +20449,7 @@
       <c r="AG11" s="7"/>
       <c r="AH11" s="47"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -19980,7 +20501,7 @@
       <c r="AG12" s="7"/>
       <c r="AH12" s="47"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -20032,7 +20553,7 @@
       <c r="AG13" s="7"/>
       <c r="AH13" s="47"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
         <v>11</v>
       </c>
@@ -20084,7 +20605,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="47"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87">
         <v>12</v>
       </c>
@@ -20132,7 +20653,7 @@
       <c r="AG15" s="7"/>
       <c r="AH15" s="47"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87">
         <v>13</v>
       </c>
@@ -20180,24 +20701,96 @@
       <c r="AG16" s="7"/>
       <c r="AH16" s="47"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="B18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23">
       <c r="B23" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AA2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
     <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:G15"/>
@@ -20205,84 +20798,12 @@
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="T15:AA15"/>
     <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AA2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
@@ -20301,12 +20822,72 @@
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="61" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -20350,7 +20931,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="14"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="101" t="s">
         <v>23</v>
       </c>
@@ -20396,7 +20977,7 @@
       <c r="AG2" s="78"/>
       <c r="AH2" s="78"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
@@ -20448,7 +21029,7 @@
       <c r="AG3" s="52"/>
       <c r="AH3" s="54"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -20498,7 +21079,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="47"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -20548,7 +21129,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="47"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -20598,7 +21179,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="47"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -20648,7 +21229,7 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="47"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -20698,7 +21279,7 @@
       <c r="AG8" s="7"/>
       <c r="AH8" s="47"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -20748,7 +21329,7 @@
       <c r="AG9" s="7"/>
       <c r="AH9" s="47"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -20800,7 +21381,7 @@
       <c r="AG10" s="7"/>
       <c r="AH10" s="47"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -20850,7 +21431,7 @@
       <c r="AG11" s="7"/>
       <c r="AH11" s="47"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -20898,7 +21479,7 @@
       <c r="AG12" s="7"/>
       <c r="AH12" s="47"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -20948,6 +21529,72 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AA2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
     <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
@@ -20955,72 +21602,6 @@
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="T13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21036,12 +21617,74 @@
       <selection activeCell="H7" sqref="H7:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -21087,7 +21730,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="107" t="s">
         <v>23</v>
       </c>
@@ -21135,7 +21778,7 @@
       <c r="AI2" s="112"/>
       <c r="AJ2" s="112"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
@@ -21191,7 +21834,7 @@
       <c r="AI3" s="49"/>
       <c r="AJ3" s="51"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -21247,7 +21890,7 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="47"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -21302,7 +21945,7 @@
       <c r="AJ5" s="47"/>
       <c r="AL5" s="60"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -21356,7 +21999,7 @@
       <c r="AI6" s="7"/>
       <c r="AJ6" s="47"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -21410,7 +22053,7 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="47"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -21464,7 +22107,7 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="47"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -21520,7 +22163,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="47"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -21576,7 +22219,7 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="47"/>
     </row>
-    <row r="11" spans="1:38" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" customHeight="1" ht="21">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -21632,7 +22275,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="47"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -21688,7 +22331,7 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="47"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -21744,7 +22387,7 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="47"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
         <v>11</v>
       </c>
@@ -21800,7 +22443,7 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="47"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87">
         <v>12</v>
       </c>
@@ -21854,7 +22497,7 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="47"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87">
         <v>13</v>
       </c>
@@ -21910,7 +22553,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="47"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="87">
         <v>14</v>
       </c>
@@ -21964,7 +22607,7 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="47"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="87">
         <v>15</v>
       </c>
@@ -22023,7 +22666,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="87">
         <v>16</v>
       </c>
@@ -22075,7 +22718,7 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="47"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="87">
         <v>17</v>
       </c>
@@ -22131,7 +22774,7 @@
       <c r="AI20" s="42"/>
       <c r="AJ20" s="46"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" s="87">
         <v>18</v>
       </c>
@@ -22181,7 +22824,7 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="47"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" s="87">
         <v>19</v>
       </c>
@@ -22231,25 +22874,144 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="47"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="24">
       <c r="B24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="29">
       <c r="B29" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:N20"/>
@@ -22264,132 +23026,13 @@
     <mergeCell ref="T21:AA21"/>
     <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
@@ -22408,12 +23051,72 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="61" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -22457,7 +23160,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="14"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="101" t="s">
         <v>23</v>
       </c>
@@ -22503,7 +23206,7 @@
       <c r="AG2" s="78"/>
       <c r="AH2" s="78"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
@@ -22555,7 +23258,7 @@
       <c r="AG3" s="52"/>
       <c r="AH3" s="54"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -22607,7 +23310,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="47"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -22659,7 +23362,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="47"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -22711,7 +23414,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="47"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -22763,7 +23466,7 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="47"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -22813,7 +23516,7 @@
       <c r="AG8" s="7"/>
       <c r="AH8" s="47"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -22863,7 +23566,7 @@
       <c r="AG9" s="7"/>
       <c r="AH9" s="47"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -22915,7 +23618,7 @@
       <c r="AG10" s="7"/>
       <c r="AH10" s="47"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -22967,7 +23670,7 @@
       <c r="AG11" s="7"/>
       <c r="AH11" s="47"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -23017,7 +23720,7 @@
       <c r="AG12" s="7"/>
       <c r="AH12" s="47"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="87">
         <v>10</v>
       </c>
@@ -23069,7 +23772,7 @@
       <c r="AG13" s="7"/>
       <c r="AH13" s="47"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="87">
         <v>11</v>
       </c>
@@ -23121,7 +23824,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="47"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="87">
         <v>12</v>
       </c>
@@ -23173,7 +23876,7 @@
       <c r="AG15" s="7"/>
       <c r="AH15" s="47"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="87">
         <v>13</v>
       </c>
@@ -23223,7 +23926,7 @@
       <c r="AG16" s="7"/>
       <c r="AH16" s="47"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="87">
         <v>14</v>
       </c>
@@ -23275,7 +23978,7 @@
       <c r="AG17" s="7"/>
       <c r="AH17" s="47"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="87">
         <v>15</v>
       </c>
@@ -23327,7 +24030,7 @@
       <c r="AG18" s="7"/>
       <c r="AH18" s="47"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="87">
         <v>16</v>
       </c>
@@ -23375,7 +24078,7 @@
       <c r="AG19" s="7"/>
       <c r="AH19" s="47"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="87">
         <v>17</v>
       </c>
@@ -23423,120 +24126,18 @@
       <c r="AG20" s="7"/>
       <c r="AH20" s="47"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="B22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="27">
       <c r="B27" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="T20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AA1"/>
     <mergeCell ref="A2:E2"/>
@@ -23550,6 +24151,108 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="T3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -23565,12 +24268,74 @@
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="3.625" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.625" customWidth="1"/>
+    <col min="29" max="29" width="3.625" customWidth="1"/>
+    <col min="30" max="30" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="36" width="3.625" customWidth="1"/>
+    <col min="37" max="37" width="3.625" customWidth="1"/>
+    <col min="38" max="38" width="3.625" customWidth="1"/>
+    <col min="39" max="39" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="3.625" customWidth="1"/>
+    <col min="41" max="41" width="3.625" customWidth="1"/>
+    <col min="42" max="42" width="3.625" customWidth="1"/>
+    <col min="43" max="43" width="3.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="45" max="45" width="3.625" customWidth="1"/>
+    <col min="46" max="46" width="3.625" customWidth="1"/>
+    <col min="47" max="47" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+    <col min="49" max="49" width="3.625" customWidth="1"/>
+    <col min="50" max="50" width="3.625" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="52" max="52" width="3.625" customWidth="1"/>
+    <col min="53" max="53" width="3.625" customWidth="1"/>
+    <col min="54" max="54" width="3.625" customWidth="1"/>
+    <col min="55" max="55" width="3.625" customWidth="1"/>
+    <col min="56" max="56" width="3.625" customWidth="1"/>
+    <col min="57" max="57" width="3.625" customWidth="1"/>
+    <col min="58" max="58" width="3.625" customWidth="1"/>
+    <col min="59" max="59" width="3.625" customWidth="1"/>
+    <col min="60" max="60" width="3.625" customWidth="1"/>
+    <col min="61" max="61" width="3.625" customWidth="1"/>
+    <col min="62" max="62" width="3.625" customWidth="1"/>
+    <col min="63" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" ht="24">
       <c r="A1" s="99" t="s">
         <v>19</v>
       </c>
@@ -23616,7 +24381,7 @@
       <c r="AI1" s="13"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="107" t="s">
         <v>23</v>
       </c>
@@ -23664,7 +24429,7 @@
       <c r="AI2" s="112"/>
       <c r="AJ2" s="112"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
@@ -23720,7 +24485,7 @@
       <c r="AI3" s="49"/>
       <c r="AJ3" s="51"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="87">
         <v>1</v>
       </c>
@@ -23776,7 +24541,7 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="47"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="87">
         <v>2</v>
       </c>
@@ -23832,7 +24597,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="47"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="87">
         <v>3</v>
       </c>
@@ -23888,7 +24653,7 @@
       <c r="AI6" s="7"/>
       <c r="AJ6" s="47"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="87">
         <v>4</v>
       </c>
@@ -23942,7 +24707,7 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="47"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="87">
         <v>5</v>
       </c>
@@ -23996,7 +24761,7 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="47"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="87">
         <v>6</v>
       </c>
@@ -24052,7 +24817,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="47"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="87">
         <v>7</v>
       </c>
@@ -24104,7 +24869,7 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="47"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="87">
         <v>8</v>
       </c>
@@ -24154,7 +24919,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="47"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="87">
         <v>9</v>
       </c>
@@ -24206,13 +24971,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:AA10"/>
     <mergeCell ref="AB10:AC10"/>
     <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="A11:B11"/>
@@ -24222,67 +25041,13 @@
     <mergeCell ref="T11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
